--- a/LAB_1/output.xlsx
+++ b/LAB_1/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>X</t>
   </si>
@@ -23,10 +23,7 @@
     <t>Z</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>F</t>
   </si>
   <si>
     <t>Среднее геометрическое</t>
@@ -101,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,93 +117,78 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5738592353225479</v>
+        <v>0.5977237470428487</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.41407200785693</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.70548873964489</v>
+        <v>1.5937648166443903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.061247658655047416</v>
+        <v>-0.09788877699989826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6124446717906635</v>
+        <v>0.6388558059917381</v>
       </c>
       <c r="D3" t="n">
-        <v>1.9246492042510424</v>
+        <v>1.981847883691786</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4780932482211064</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29.871975010252346</v>
+        <v>1.7367445829916364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5876737941710403</v>
+        <v>0.5995716189063668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1918417082305378</v>
+        <v>0.20196853796132075</v>
       </c>
       <c r="D4" t="n">
-        <v>2.862377755689252</v>
+        <v>2.9024093117951812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.22300461293604287</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.133675876375842</v>
+        <v>0.6319404754315597</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1.9849040773697197</v>
+        <v>1.9804216655902565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.843904518287496</v>
+        <v>0.8404195163944491</v>
       </c>
       <c r="D5" t="n">
-        <v>16.025876639890342</v>
+        <v>16.861218413676205</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9357554619659355</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16.984363013444163</v>
+        <v>2.397770301096341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>100.0</v>
@@ -218,110 +200,92 @@
         <v>100.0</v>
       </c>
       <c r="E6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="F6" t="n">
         <v>100.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>959.5040970967959</v>
+        <v>-612.5029214605368</v>
       </c>
       <c r="C7" t="n">
-        <v>31.32392476689065</v>
+        <v>31.61410385052252</v>
       </c>
       <c r="D7" t="n">
-        <v>148.72205019839535</v>
+        <v>146.4496511401558</v>
       </c>
       <c r="E7" t="n">
-        <v>46.64458529079848</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10.49035383599623</v>
+        <v>36.38649468783764</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11518406365752389</v>
+        <v>0.11751603730564789</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03760097481318541</v>
+        <v>0.03958583344041886</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5610260401150934</v>
+        <v>0.5688722251118554</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0437089041354644</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.6142004717696651</v>
+        <v>0.1238603331845857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3453604883553862</v>
+        <v>0.3594861261980016</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0368032410168108</v>
+        <v>0.04079129032623346</v>
       </c>
       <c r="D9" t="n">
-        <v>8.19320641626464</v>
+        <v>8.423979813195377</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0497310573907543</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.8199244981799</v>
+        <v>0.39934876448866574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.997988638933748</v>
+        <v>-0.9907438643276691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.133340939360234</v>
+        <v>0.12587667983704473</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.86786604618873</v>
+        <v>-5.980586804526586</v>
       </c>
       <c r="E10" t="n">
-        <v>0.029081581486011192</v>
-      </c>
-      <c r="F10" t="n">
-        <v>21.317324675216813</v>
+        <v>0.35350235393950014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9869154384359717</v>
+        <v>0.9896778012625873</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9772454576477301</v>
+        <v>0.9662961962314939</v>
       </c>
       <c r="D11" t="n">
-        <v>9.158010593701611</v>
+        <v>10.880631609149617</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9648370434519467</v>
-      </c>
-      <c r="F11" t="n">
-        <v>38.30168768866098</v>
+        <v>2.7512726550358413</v>
       </c>
     </row>
   </sheetData>
